--- a/9_AridityDroughtResearch/1_AIChange/Fig2_Output/80% confidence interval.xlsx
+++ b/9_AridityDroughtResearch/1_AIChange/Fig2_Output/80% confidence interval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\8_AridityDroughtResearch\1_AIChange\Fig2_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\9_AridityDroughtResearch\1_AIChange\Fig2_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5438E5D-96F8-4C5B-9B75-B3A232D47EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325A373-38C2-4FFF-B87A-0100E78EEBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1950" windowWidth="37650" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2685" windowWidth="27405" windowHeight="15765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -18,76 +18,59 @@
     <sheet name="PM_RC_Yang" sheetId="6" r:id="rId3"/>
     <sheet name="PM_RC" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
+  <si>
+    <t>These forms record the 80% Confidence Interval of different variables in Attribution Analysis.</t>
+  </si>
+  <si>
+    <t>ssp 126</t>
+  </si>
   <si>
     <t>delta AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta AI contributed by</t>
   </si>
   <si>
     <t>delta Pr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta Rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta VPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delta AI contributed by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>EnsembleMean</t>
   </si>
   <si>
-    <t>ssp 126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>±80%CI</t>
   </si>
   <si>
     <t>ssp 245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ssp 370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ssp 585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>These forms record the 80% Confidence Interval of different variables in Attribution Analysis.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80% CI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -102,13 +85,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,6 +93,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,15 +129,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -218,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -253,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -428,30 +410,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F48BC-511E-4741-AA5B-FE2FB2D18986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="108.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -507,31 +484,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -544,10 +521,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -559,86 +536,88 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>5.3618218686006455E-3</v>
+        <v>1.6453537617068845E-4</v>
       </c>
       <c r="C4" s="2">
-        <v>4.7371802489396354E-2</v>
+        <v>4.2172873872588799E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>1.8171177353679298E-2</v>
+        <v>1.7347976802939948E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>-8.155992987881E-3</v>
+        <v>-9.7847604951866833E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>-4.9028507862777605E-2</v>
+        <v>-4.8468575139568593E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>-2.6372512225352907E-3</v>
+        <v>-3.1126757616497715E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>1.2608960337119461E-3</v>
+        <v>-2.7986083680911109E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>-6.0825886359377086E-3</v>
+        <v>2.2895569338560861E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="2">
-        <v>-5.0327511162592681E-3</v>
+        <v>5.1972864924299568E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>3.6973945255781245E-2</v>
+        <v>5.1989286168075532E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.6524776252200599E-2</v>
+        <v>8.2320055073935045E-4</v>
       </c>
       <c r="E5" s="2">
-        <v>-1.1413528002492367E-2</v>
+        <v>1.6287675073056829E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>-5.85932414410213E-2</v>
+        <v>4.4014632111666228E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>-3.5881003007642524E-3</v>
+        <v>4.7542453911448071E-4</v>
       </c>
       <c r="H5" s="2">
-        <v>-1.820617707330168E-3</v>
+        <v>1.540756870521057E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>-9.1811242564361975E-3</v>
+        <v>4.6478034307477343E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -651,10 +630,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -666,86 +645,88 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>1.6063872604553761E-2</v>
+        <v>9.4601452082296866E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>6.0033778408413938E-2</v>
+        <v>5.3545069048787766E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>3.1243573349690714E-2</v>
+        <v>4.0005534031541619E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>-6.5133912522901353E-3</v>
+        <v>-8.2089746328499035E-3</v>
       </c>
       <c r="F11" s="2">
-        <v>-8.1703691253549135E-2</v>
+        <v>-7.4572737636898034E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>-3.1205205257308468E-3</v>
+        <v>-3.7835889966448015E-3</v>
       </c>
       <c r="H11" s="2">
-        <v>1.1135448606494885E-4</v>
+        <v>-3.4083246521928712E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>-1.7037135440781555E-2</v>
+        <v>5.8831680464859239E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="2">
-        <v>2.8564178119056104E-3</v>
+        <v>6.6037273963240762E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>4.7056359689161595E-2</v>
+        <v>6.4887093596261722E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>2.5298249785082553E-2</v>
+        <v>9.8031617471821425E-4</v>
       </c>
       <c r="E12" s="2">
-        <v>-9.9045580134096717E-3</v>
+        <v>1.6955833805597687E-3</v>
       </c>
       <c r="F12" s="2">
-        <v>-9.4896568237181247E-2</v>
+        <v>6.516173348282521E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>-4.4466574675587562E-3</v>
+        <v>6.6306847091395481E-4</v>
       </c>
       <c r="H12" s="2">
-        <v>-6.9280037904506913E-3</v>
+        <v>3.5196791382578201E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>-2.2183984869124606E-2</v>
+        <v>7.7202741425145811E-4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -758,10 +739,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -773,86 +754,88 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
+      <c r="A18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>3.8464857483712263E-2</v>
+        <v>2.9171203712610377E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>7.2586810641919852E-2</v>
+        <v>6.2607605489341772E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>5.593468658485342E-2</v>
+        <v>6.5770419956973025E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>7.5370309699579583E-4</v>
+        <v>-1.0983556651200045E-3</v>
       </c>
       <c r="F18" s="2">
-        <v>-0.11056320242571833</v>
+        <v>-9.8284057556266846E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>-2.7127322007921375E-3</v>
+        <v>-3.7167218421663073E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>-9.8422958975763822E-4</v>
+        <v>-5.9905763486181795E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>-2.864423988115395E-2</v>
+        <v>9.8828896784669516E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="2">
-        <v>1.9877549941508491E-2</v>
+        <v>9.2936537711018861E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>5.2628400336763685E-2</v>
+        <v>9.9792051525780853E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>4.07386736449298E-2</v>
+        <v>3.5876051124696562E-3</v>
       </c>
       <c r="E19" s="2">
-        <v>-2.9504144272358051E-3</v>
+        <v>1.8520587621158003E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>-0.13212506451966116</v>
+        <v>1.0098361022858129E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>-4.7207114835404775E-3</v>
+        <v>1.0039896413741698E-3</v>
       </c>
       <c r="H19" s="2">
-        <v>-1.0996923107478721E-2</v>
+        <v>5.0063467588605413E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>-3.7241691308625736E-2</v>
+        <v>1.2896177141207682E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -865,10 +848,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -880,126 +863,124 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
+      <c r="A25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>5.6352946833803416E-2</v>
+        <v>4.365392531811467E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>9.4561035483921183E-2</v>
+        <v>8.3324198991167039E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>4.3495278477826242E-2</v>
+        <v>9.5798417021176765E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>-6.5340141376907888E-3</v>
+        <v>-8.8774159929373223E-3</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.15220222781428425</v>
+        <v>-0.13405972351801301</v>
       </c>
       <c r="G25" s="2">
-        <v>-1.8498425957636565E-3</v>
+        <v>-3.4073514146081584E-3</v>
       </c>
       <c r="H25" s="2">
-        <v>1.3022744346562632E-4</v>
+        <v>-2.3974446636186204E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>-3.8743591571521366E-2</v>
+        <v>1.3273244894947992E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B26" s="2">
-        <v>3.0954903802425923E-2</v>
+        <v>1.2699021515688745E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>7.2087362498412896E-2</v>
+        <v>1.1236836492754145E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>2.6503023515334269E-2</v>
+        <v>2.074693815482271E-3</v>
       </c>
       <c r="E26" s="2">
-        <v>-1.1220817848183856E-2</v>
+        <v>2.3434018552465339E-3</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.17785902873149914</v>
+        <v>1.0006314837086553E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>-4.9648602334526606E-3</v>
+        <v>1.557508818844502E-3</v>
       </c>
       <c r="H26" s="2">
-        <v>-4.9251167707028672E-3</v>
+        <v>2.5276721070842468E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>-4.9744707728131915E-2</v>
+        <v>1.650167423491582E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:I22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F03D1A0-C915-4D26-A5BD-C602A53F1174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1012,10 +993,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1027,86 +1008,88 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>-1.5847768866778019E-3</v>
+        <v>-6.510079158257593E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>4.636542685541107E-2</v>
+        <v>4.1281868178257124E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>1.0763908813552409E-2</v>
+        <v>1.1925158562244234E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>-7.8081295972265603E-3</v>
+        <v>-9.232924567864181E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>-4.6981624297612837E-2</v>
+        <v>-5.0862634337043286E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>-2.5263255238940152E-3</v>
+        <v>-3.5711407471392398E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>1.2004503912876445E-3</v>
+        <v>-2.7529799779472399E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>-4.3656461298086568E-3</v>
+        <v>4.2248917510824746E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="2">
-        <v>-1.1435381429837384E-2</v>
+        <v>4.9253022715797911E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>3.6198309501103178E-2</v>
+        <v>5.0835586771539485E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.0582815723470928E-2</v>
+        <v>4.5588074651942346E-4</v>
       </c>
       <c r="E5" s="2">
-        <v>-1.0917205522111319E-2</v>
+        <v>1.5322360744655825E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>-5.6171835301718598E-2</v>
+        <v>4.5273092082927773E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>-3.4371572825786052E-3</v>
+        <v>4.416561422012503E-4</v>
       </c>
       <c r="H5" s="2">
-        <v>-1.7508865423746108E-3</v>
+        <v>1.4032651812133368E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>-7.0964483363674538E-3</v>
+        <v>1.302274590041263E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1119,10 +1102,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1134,86 +1117,88 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>-3.0687438831556967E-3</v>
+        <v>-9.312300508042156E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>5.8479782326845892E-2</v>
+        <v>5.2166889446218931E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>1.7336671645454469E-2</v>
+        <v>2.4623357999124691E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>-6.17288491865884E-3</v>
+        <v>-7.6359787693973851E-3</v>
       </c>
       <c r="F11" s="2">
-        <v>-7.7564309214290181E-2</v>
+        <v>-8.2299437979536982E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>-2.960286850895711E-3</v>
+        <v>-4.8412020864874606E-3</v>
       </c>
       <c r="H11" s="2">
-        <v>9.4841111137784762E-5</v>
+        <v>-3.052462449932603E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>-1.3432731755435325E-2</v>
+        <v>1.1726533331968639E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="2">
-        <v>-1.5555857132928615E-2</v>
+        <v>6.2435566248864593E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>4.585399656559197E-2</v>
+        <v>6.3128928806269607E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>1.4619179253157848E-2</v>
+        <v>8.368635293402978E-4</v>
       </c>
       <c r="E12" s="2">
-        <v>-9.385800024584872E-3</v>
+        <v>1.5761776804432384E-3</v>
       </c>
       <c r="F12" s="2">
-        <v>-9.011380210720156E-2</v>
+        <v>6.1522152593856943E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>-4.2184608184718956E-3</v>
+        <v>5.7901490301975108E-4</v>
       </c>
       <c r="H12" s="2">
-        <v>-6.5864952572844901E-3</v>
+        <v>3.1374850046764729E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>-1.8049909785752698E-2</v>
+        <v>2.603861714825777E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1226,10 +1211,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1241,86 +1226,88 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
+      <c r="A18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>4.3853862996855704E-3</v>
+        <v>-4.2468706655471268E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>7.0316269226157885E-2</v>
+        <v>6.0662431668899411E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>2.8697143010701559E-2</v>
+        <v>3.8990341699536267E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>7.0124207808966075E-4</v>
+        <v>-1.0078097913082935E-3</v>
       </c>
       <c r="F18" s="2">
-        <v>-0.10377778275306103</v>
+        <v>-0.11119130877910335</v>
       </c>
       <c r="G18" s="2">
-        <v>-2.5446304526668411E-3</v>
+        <v>-5.7009668237015957E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>-9.3878288812058661E-4</v>
+        <v>-5.181937014887731E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>-2.3011267768485305E-2</v>
+        <v>1.9182378375018155E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="2">
-        <v>-1.2879127630779825E-2</v>
+        <v>8.6322569652326972E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>5.1008594111640944E-2</v>
+        <v>9.653837557258467E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>2.1853214102165383E-2</v>
+        <v>2.4095197880184094E-3</v>
       </c>
       <c r="E19" s="2">
-        <v>-2.7717517527432074E-3</v>
+        <v>1.6949210778491276E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>-0.1239784703416764</v>
+        <v>9.8527472994188008E-3</v>
       </c>
       <c r="G19" s="2">
-        <v>-4.4289321174132128E-3</v>
+        <v>8.5696557406384985E-4</v>
       </c>
       <c r="H19" s="2">
-        <v>-1.033711503434089E-2</v>
+        <v>4.3218771227828863E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>-3.0541659666923127E-2</v>
+        <v>3.9491790880344015E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1333,10 +1320,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1348,126 +1335,124 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
+      <c r="A25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>5.1783757477923721E-3</v>
+        <v>-6.369297985403588E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>9.1162693220256136E-2</v>
+        <v>8.0355091719836277E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>2.2588377979031626E-2</v>
+        <v>5.7103313263634749E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>-6.0674585256228382E-3</v>
+        <v>-8.0080671081394338E-3</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.14156990437700054</v>
+        <v>-0.14907556284271956</v>
       </c>
       <c r="G25" s="2">
-        <v>-1.7179582510881508E-3</v>
+        <v>-6.7342775773416991E-3</v>
       </c>
       <c r="H25" s="2">
-        <v>1.0387519801218414E-4</v>
+        <v>-2.0291364099505617E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>-2.9964795605674919E-2</v>
+        <v>2.2019340969276654E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B26" s="2">
-        <v>-1.7916971718599548E-2</v>
+        <v>1.154767373319596E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>6.9547490219416419E-2</v>
+        <v>1.0807601500419853E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>1.4561900830808203E-2</v>
+        <v>2.1203957789707813E-3</v>
       </c>
       <c r="E26" s="2">
-        <v>-1.042254851801195E-2</v>
+        <v>2.1134606186380711E-3</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.16537979448765974</v>
+        <v>1.1545845415961483E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>-4.6141695351157811E-3</v>
+        <v>1.2405391981879627E-3</v>
       </c>
       <c r="H26" s="2">
-        <v>-4.5921243223049652E-3</v>
+        <v>2.1076070200270461E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>-3.929612036732006E-2</v>
+        <v>3.5373046763493977E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:I22"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD66FA0-6B59-4A3B-A504-3C5D1BD89960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1480,10 +1465,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1495,86 +1480,88 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>-1.2326984195780946E-2</v>
+        <v>-1.718344142676926E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>4.5744484971220016E-2</v>
+        <v>4.0728866354466146E-2</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>-7.5995281400181537E-3</v>
+        <v>-9.1121251249998095E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>-4.5729872154659595E-2</v>
+        <v>-5.0198560232685048E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>-2.4589702793548188E-3</v>
+        <v>-2.9028257949692887E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>1.1688457365812625E-3</v>
+        <v>-2.6856895421109985E-4</v>
       </c>
       <c r="I4" s="2">
-        <v>-3.3117762427760083E-3</v>
+        <v>4.569772325629857E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="2">
-        <v>-2.2039898657757573E-2</v>
+        <v>4.8564572309883133E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>3.5713247737712277E-2</v>
+        <v>5.0156186167538705E-3</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>-1.0624722109981465E-2</v>
+        <v>1.5125969849816556E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>-5.4667248310710501E-2</v>
+        <v>4.4686880780254535E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>-3.3466813105837586E-3</v>
+        <v>4.4385551561447001E-4</v>
       </c>
       <c r="H5" s="2">
-        <v>-1.7059836450034624E-3</v>
+        <v>1.4374146907923625E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>-5.8277684084837057E-3</v>
+        <v>1.2579960828538489E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1587,10 +1574,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1602,86 +1589,88 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>-2.4443873683076611E-2</v>
+        <v>-3.0545388823311932E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>5.7449505638909326E-2</v>
+        <v>5.1246513922349531E-2</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>-5.9555665911642276E-3</v>
+        <v>-7.5050723268709468E-3</v>
       </c>
       <c r="F11" s="2">
-        <v>-7.4842642327059908E-2</v>
+        <v>-8.0891704539551954E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>-2.8564421017991007E-3</v>
+        <v>-3.4642675132777008E-3</v>
       </c>
       <c r="H11" s="2">
-        <v>9.259032155724007E-5</v>
+        <v>-3.1344420452361888E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>-1.105802292417047E-2</v>
+        <v>1.3203583679275342E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="2">
-        <v>-3.664690396354725E-2</v>
+        <v>6.1015151402353217E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>4.5043522205789735E-2</v>
+        <v>6.2029917165597947E-3</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>-9.0545780625776659E-3</v>
+        <v>1.5495057357067191E-3</v>
       </c>
       <c r="F12" s="2">
-        <v>-8.6940766752043999E-2</v>
+        <v>6.0490622124920465E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>-4.0720929247563004E-3</v>
+        <v>6.078254114786001E-4</v>
       </c>
       <c r="H12" s="2">
-        <v>-6.3614744120296177E-3</v>
+        <v>3.2270323667934289E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>-1.5349144434380214E-2</v>
+        <v>2.1455607551048726E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1694,10 +1683,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1709,86 +1698,88 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
+      <c r="A18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>-2.8053934548280698E-2</v>
+        <v>-3.6599216244362645E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>6.8753710547518693E-2</v>
+        <v>5.9310324595389471E-2</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>6.7031393762025993E-4</v>
+        <v>-9.8872285025922331E-4</v>
       </c>
       <c r="F18" s="2">
-        <v>-9.9169848446700959E-2</v>
+        <v>-0.10882369300095017</v>
       </c>
       <c r="G18" s="2">
-        <v>-2.4315297188744448E-3</v>
+        <v>-3.3325187060284545E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>-8.9409648139971744E-4</v>
+        <v>-5.3879994719249237E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.9197140927115209E-2</v>
+        <v>2.2623393189410649E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="2">
-        <v>-4.5144497940444589E-2</v>
+        <v>8.5452816960819473E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>4.986693864326025E-2</v>
+        <v>9.4433859521292213E-3</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>-2.6477596381387063E-3</v>
+        <v>1.6590367878794832E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>-0.11847753755519938</v>
+        <v>9.6538445542492073E-3</v>
       </c>
       <c r="G19" s="2">
-        <v>-4.2335076931824638E-3</v>
+        <v>9.009889871540096E-4</v>
       </c>
       <c r="H19" s="2">
-        <v>-9.88190246245013E-3</v>
+        <v>4.4939029905252063E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>-2.6049645451706089E-2</v>
+        <v>3.42625226229544E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1801,10 +1792,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1816,104 +1807,102 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
+      <c r="A25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>-4.1198321299644999E-2</v>
+        <v>-5.2144491703062096E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>8.8714968690435353E-2</v>
+        <v>7.8188018434108386E-2</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>-5.741332153944137E-3</v>
+        <v>-7.8015491174298606E-3</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.13396777102849958</v>
+        <v>-0.14522823806233315</v>
       </c>
       <c r="G25" s="2">
-        <v>-1.6263254480454344E-3</v>
+        <v>-2.9981253317985413E-3</v>
       </c>
       <c r="H25" s="2">
-        <v>1.049456784025897E-4</v>
+        <v>-2.1192697233474731E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>-2.374269389898731E-2</v>
+        <v>2.7814672097738517E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B26" s="2">
-        <v>-6.3090662106479192E-2</v>
+        <v>1.09461704034171E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>6.7661068177781419E-2</v>
+        <v>1.052695025632696E-2</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>-9.8617660809155842E-3</v>
+        <v>2.0602169634857232E-3</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.15648870509616672</v>
+        <v>1.1260467033833575E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>-4.3699252155516479E-3</v>
+        <v>1.3717998837531069E-3</v>
       </c>
       <c r="H26" s="2">
-        <v>-4.3434851250975359E-3</v>
+        <v>2.2242154017500628E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>-3.1886650296489724E-2</v>
+        <v>4.0719781987512077E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>